--- a/xlsx/吉布地_intext.xlsx
+++ b/xlsx/吉布地_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1002">
   <si>
     <t>吉布地</t>
   </si>
@@ -29,7 +29,7 @@
     <t>吉布提国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_吉布地</t>
+    <t>政策_政策_美国_吉布地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90%E5%9B%BD%E5%BE%BD</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>吉布地國歌</t>
+    <t>吉布地国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>一級行政區</t>
+    <t>一级行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%9F%BA%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>迪基爾州</t>
+    <t>迪基尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%B8%89%E5%8D%80</t>
   </si>
   <si>
-    <t>東三區</t>
+    <t>东三区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E9%87%8C%E4%BA%BA</t>
   </si>
   <si>
-    <t>索馬里人</t>
+    <t>索马里人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8E%86</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90%E8%AE%AE%E4%BC%9A</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E6%B3%95%E9%83%8E</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.dj</t>
@@ -431,37 +431,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際冠碼</t>
+    <t>国际冠码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>国际电话区号列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國武裝部隊列表</t>
+    <t>各国武装部队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%95%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿法爾語</t>
+    <t>阿法尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%B5%B7</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BD%9D%E5%A3%AB%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>蘇彝士運河</t>
+    <t>苏彝士运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>波斯灣</t>
+    <t>波斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%9F%BA%E5%9C%B0</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%BB%8D</t>
   </si>
   <si>
-    <t>法軍</t>
+    <t>法军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8D%AB%E9%98%9F</t>
@@ -587,25 +581,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>法屬索馬利蘭</t>
+    <t>法属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次世界大戰</t>
+    <t>二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>海外領地</t>
+    <t>海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%A1%91%C2%B7%E5%8F%A4%E8%8E%B1%E5%BE%B7%C2%B7%E9%98%BF%E6%99%AE%E8%92%82%E6%95%A6</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>直接選舉</t>
+    <t>直接选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90%E5%9C%B0%E7%90%86</t>
@@ -629,9 +620,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%B8%81%E7%81%A3</t>
   </si>
   <si>
-    <t>亞丁灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
   </si>
   <si>
@@ -671,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%81%B8</t>
   </si>
   <si>
-    <t>直選</t>
+    <t>直选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F</t>
@@ -707,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>基礎建設</t>
+    <t>基础建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%B0%A6_(%E8%A7%A3%E6%94%BE%E5%86%9B)</t>
@@ -749,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E8%96%A9%E6%AF%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿里薩比州</t>
+    <t>阿里萨比州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E8%90%A8%E6%AF%94%E8%80%B6</t>
@@ -761,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%A1%94%E5%B7%9E_(%E5%90%89%E5%B8%83%E6%8F%90)</t>
   </si>
   <si>
-    <t>阿爾塔州 (吉布提)</t>
+    <t>阿尔塔州 (吉布提)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%A1%94</t>
@@ -791,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8D%9A%E5%85%8B%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧博克州</t>
+    <t>奥博克州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8D%9A%E5%85%8B</t>
   </si>
   <si>
-    <t>奧博克</t>
+    <t>奥博克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E5%B8%82</t>
@@ -809,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%A2</t>
   </si>
   <si>
-    <t>驢</t>
+    <t>驴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B</t>
@@ -821,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%B1%E9%A7%9D</t>
   </si>
   <si>
-    <t>駱駝</t>
+    <t>骆驼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E7%BE%8A</t>
@@ -833,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%BF%E7%BE%8A</t>
   </si>
   <si>
-    <t>綿羊</t>
+    <t>绵羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF</t>
   </si>
   <si>
-    <t>馬鈴薯</t>
+    <t>马铃薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
@@ -863,25 +851,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%8F%A3%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>轉口貿易</t>
+    <t>转口贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>飲料</t>
+    <t>饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -893,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -905,19 +893,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%9A%84%E6%96%AF%E4%BA%9A%E8%B4%9D%E5%B7%B4</t>
@@ -965,9 +950,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐洲人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E4%BA%BA</t>
   </si>
   <si>
@@ -977,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>內戰</t>
+    <t>内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%8A%E5%B0%BC%E6%B4%BE</t>
@@ -1001,9 +983,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
   </si>
   <si>
@@ -1025,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣東話</t>
+    <t>广东话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯國家聯盟</t>
+    <t>阿拉伯国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Africa</t>
@@ -1073,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1091,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1127,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1157,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1199,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1343,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1373,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1397,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1457,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1529,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -1607,9 +1586,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E5%90%88%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
@@ -1637,49 +1613,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>泛阿拉伯顏色</t>
+    <t>泛阿拉伯颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇丹共和國</t>
+    <t>苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%AA%E4%B8%96%E7%95%8C%E7%90%86%E8%AE%BA_(%E6%AF%9B%E6%B3%BD%E4%B8%9C)</t>
@@ -1715,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -1751,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>單邊主義</t>
+    <t>单边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -1769,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
@@ -1781,19 +1745,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9B%9B%E5%A4%A7%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲四大經濟體</t>
+    <t>欧洲四大经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1805,13 +1769,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%94%E5%9C%8B</t>
   </si>
   <si>
-    <t>北歐五國</t>
+    <t>北欧五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -1829,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -1841,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
@@ -1859,19 +1823,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -1901,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1931,19 +1895,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1967,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1991,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
@@ -2021,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -2039,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -2051,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -2063,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>較發達國家</t>
+    <t>较发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -2081,25 +2045,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2111,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>已開發國家或地區</t>
+    <t>已开发国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%99</t>
@@ -2135,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
@@ -2147,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>八大工業國組織</t>
+    <t>八大工业国组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
@@ -2165,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>西歐聯盟</t>
+    <t>西欧联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -2243,19 +2207,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
@@ -2303,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -2351,7 +2315,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
@@ -2363,27 +2327,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2393,7 +2351,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
@@ -2423,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>失敗國家</t>
+    <t>失败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -2471,7 +2429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -2519,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
@@ -2537,13 +2495,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
@@ -2555,13 +2510,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E8%A1%9D%E7%AA%81%E8%AB%96</t>
   </si>
   <si>
-    <t>文明衝突論</t>
+    <t>文明冲突论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
@@ -2591,13 +2546,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
@@ -2609,7 +2561,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -2693,9 +2645,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
   </si>
   <si>
@@ -2711,9 +2660,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
   </si>
   <si>
-    <t>缅甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
   </si>
   <si>
@@ -2735,19 +2681,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2777,15 +2717,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
@@ -2813,19 +2750,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
   </si>
   <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2855,7 +2789,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -2921,19 +2855,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2951,15 +2882,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -2969,13 +2897,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>希腊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -2987,13 +2912,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
   </si>
   <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -3005,7 +2927,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
@@ -3017,7 +2939,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -3065,7 +2987,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -3083,13 +3005,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
@@ -3820,7 +3742,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -5586,7 +5508,7 @@
         <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5612,10 +5534,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5641,10 +5563,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5670,10 +5592,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5699,10 +5621,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>19</v>
@@ -5728,10 +5650,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5757,10 +5679,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -5786,10 +5708,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -5815,10 +5737,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -5844,10 +5766,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5873,10 +5795,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -5902,10 +5824,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5931,10 +5853,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5960,10 +5882,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5989,10 +5911,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6018,10 +5940,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6047,10 +5969,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -6076,10 +5998,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6105,10 +6027,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6134,10 +6056,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -6163,10 +6085,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6192,10 +6114,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6221,10 +6143,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6250,10 +6172,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6279,10 +6201,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -6308,10 +6230,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -6337,10 +6259,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6366,10 +6288,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6395,10 +6317,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6424,10 +6346,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -6453,10 +6375,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6482,10 +6404,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6511,10 +6433,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -6540,10 +6462,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -6569,10 +6491,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -6598,10 +6520,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -6627,10 +6549,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6656,10 +6578,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6714,10 +6636,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6772,10 +6694,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6801,10 +6723,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -6830,10 +6752,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -6859,10 +6781,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6888,10 +6810,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6917,10 +6839,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6946,10 +6868,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6975,10 +6897,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7004,10 +6926,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7033,10 +6955,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7062,10 +6984,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7091,10 +7013,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7120,10 +7042,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7149,10 +7071,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7178,10 +7100,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7207,10 +7129,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7236,10 +7158,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7265,10 +7187,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7294,10 +7216,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7323,10 +7245,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7352,10 +7274,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7381,10 +7303,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7410,10 +7332,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7439,10 +7361,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7468,10 +7390,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7497,10 +7419,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7526,10 +7448,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7555,10 +7477,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7584,10 +7506,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7613,10 +7535,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7642,10 +7564,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7671,10 +7593,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7700,10 +7622,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7729,10 +7651,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -7758,10 +7680,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7787,10 +7709,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7816,10 +7738,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7845,10 +7767,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7874,10 +7796,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -7903,10 +7825,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7932,10 +7854,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7961,10 +7883,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7990,10 +7912,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8019,10 +7941,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8048,10 +7970,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8077,10 +7999,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>6</v>
@@ -8106,10 +8028,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8135,10 +8057,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8164,10 +8086,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8222,10 +8144,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F165" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8251,10 +8173,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8280,10 +8202,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8309,10 +8231,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -8338,10 +8260,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8367,10 +8289,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8396,10 +8318,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8425,10 +8347,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="G172" t="n">
         <v>9</v>
@@ -8454,10 +8376,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8483,10 +8405,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8512,10 +8434,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8541,10 +8463,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8570,10 +8492,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8599,10 +8521,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>12</v>
@@ -8628,10 +8550,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8657,10 +8579,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>4</v>
@@ -8686,10 +8608,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>6</v>
@@ -8715,10 +8637,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -8744,10 +8666,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G183" t="n">
         <v>8</v>
@@ -8773,10 +8695,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8802,10 +8724,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8831,10 +8753,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G186" t="n">
         <v>5</v>
@@ -8860,10 +8782,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -8889,10 +8811,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G188" t="n">
         <v>6</v>
@@ -8918,10 +8840,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G189" t="n">
         <v>4</v>
@@ -8947,10 +8869,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -8976,10 +8898,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -9005,10 +8927,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -9034,10 +8956,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9063,10 +8985,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -9092,10 +9014,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G195" t="n">
         <v>11</v>
@@ -9121,10 +9043,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G196" t="n">
         <v>5</v>
@@ -9150,10 +9072,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G197" t="n">
         <v>6</v>
@@ -9179,10 +9101,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -9208,10 +9130,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -9237,10 +9159,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -9266,10 +9188,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G201" t="n">
         <v>5</v>
@@ -9295,10 +9217,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -9324,10 +9246,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9353,10 +9275,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G204" t="n">
         <v>4</v>
@@ -9382,10 +9304,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -9411,10 +9333,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>4</v>
@@ -9440,10 +9362,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -9469,10 +9391,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9498,10 +9420,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9527,10 +9449,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9556,10 +9478,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9585,10 +9507,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -9614,10 +9536,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9643,10 +9565,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>5</v>
@@ -9672,10 +9594,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9701,10 +9623,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -9730,10 +9652,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9759,10 +9681,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>5</v>
@@ -9788,10 +9710,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9817,10 +9739,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9846,10 +9768,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -9875,10 +9797,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9904,10 +9826,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9933,10 +9855,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9962,10 +9884,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9991,10 +9913,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F226" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -10020,10 +9942,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10049,10 +9971,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G228" t="n">
         <v>4</v>
@@ -10078,10 +10000,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -10107,10 +10029,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F230" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G230" t="n">
         <v>5</v>
@@ -10136,10 +10058,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10165,10 +10087,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -10194,10 +10116,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -10223,10 +10145,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -10252,10 +10174,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10281,10 +10203,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10310,10 +10232,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10339,10 +10261,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10368,10 +10290,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10397,10 +10319,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10426,10 +10348,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10455,10 +10377,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10484,10 +10406,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10513,10 +10435,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F244" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10542,10 +10464,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -10571,10 +10493,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10600,10 +10522,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10629,10 +10551,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10658,10 +10580,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10687,10 +10609,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10716,10 +10638,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10745,10 +10667,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10774,10 +10696,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10803,10 +10725,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10832,10 +10754,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10861,10 +10783,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10890,10 +10812,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10919,10 +10841,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10948,10 +10870,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10977,10 +10899,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G260" t="n">
         <v>4</v>
@@ -11006,10 +10928,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11035,10 +10957,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F262" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11064,10 +10986,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G263" t="n">
         <v>4</v>
@@ -11093,10 +11015,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G264" t="n">
         <v>5</v>
@@ -11122,10 +11044,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -11151,10 +11073,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G266" t="n">
         <v>4</v>
@@ -11180,10 +11102,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11209,10 +11131,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -11238,10 +11160,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G269" t="n">
         <v>5</v>
@@ -11267,10 +11189,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G270" t="n">
         <v>4</v>
@@ -11296,10 +11218,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G271" t="n">
         <v>5</v>
@@ -11325,10 +11247,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11354,10 +11276,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11383,10 +11305,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F274" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -11412,10 +11334,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F275" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11441,10 +11363,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F276" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11470,10 +11392,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F277" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11499,10 +11421,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F278" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11528,10 +11450,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F279" t="s">
-        <v>530</v>
+        <v>331</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -11557,10 +11479,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11586,10 +11508,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11615,10 +11537,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11644,10 +11566,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11673,10 +11595,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F284" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11702,10 +11624,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F285" t="s">
-        <v>542</v>
+        <v>337</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11731,10 +11653,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F286" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11760,10 +11682,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11789,10 +11711,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11818,10 +11740,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11847,10 +11769,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11876,10 +11798,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>505</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11905,10 +11827,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F292" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11934,10 +11856,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F293" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11963,10 +11885,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F294" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11992,10 +11914,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F295" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12021,10 +11943,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F296" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12050,10 +11972,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12079,10 +12001,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12108,10 +12030,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F299" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12137,10 +12059,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F300" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12166,10 +12088,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F301" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -12195,10 +12117,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F302" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12224,10 +12146,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F303" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12253,10 +12175,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F304" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12282,10 +12204,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F305" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12311,10 +12233,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12340,10 +12262,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12369,10 +12291,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12398,13 +12320,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12427,10 +12349,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12456,10 +12378,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12485,10 +12407,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12514,10 +12436,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12543,10 +12465,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12572,10 +12494,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12601,10 +12523,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12630,10 +12552,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12659,10 +12581,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12688,10 +12610,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12717,10 +12639,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12746,10 +12668,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12775,10 +12697,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12804,10 +12726,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12833,10 +12755,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12862,10 +12784,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12891,10 +12813,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12920,10 +12842,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12949,10 +12871,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12978,10 +12900,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13007,10 +12929,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13036,10 +12958,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13065,10 +12987,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13094,10 +13016,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13123,10 +13045,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -13152,10 +13074,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13181,10 +13103,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -13210,10 +13132,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13239,10 +13161,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13268,10 +13190,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13297,10 +13219,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13326,10 +13248,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13355,10 +13277,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13384,10 +13306,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13413,10 +13335,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F344" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13442,10 +13364,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F345" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13471,10 +13393,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F346" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13500,10 +13422,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13529,10 +13451,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -13558,10 +13480,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13587,10 +13509,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13616,10 +13538,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F351" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -13645,10 +13567,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F352" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13674,10 +13596,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G353" t="n">
         <v>3</v>
@@ -13703,10 +13625,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13732,10 +13654,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13761,10 +13683,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13790,10 +13712,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13819,10 +13741,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13848,10 +13770,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13877,10 +13799,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G360" t="n">
         <v>3</v>
@@ -13906,10 +13828,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G361" t="n">
         <v>3</v>
@@ -13935,10 +13857,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F362" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13964,10 +13886,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="F363" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13993,10 +13915,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F364" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14022,10 +13944,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F365" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14051,10 +13973,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="F366" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -14080,10 +14002,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="F367" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14109,10 +14031,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="F368" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14138,10 +14060,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="F369" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14167,10 +14089,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="F370" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14196,10 +14118,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="F371" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14225,10 +14147,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="F372" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -14254,10 +14176,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="F373" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14283,10 +14205,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="F374" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14312,10 +14234,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="F375" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14341,10 +14263,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="F376" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14370,10 +14292,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F377" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14399,10 +14321,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F378" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14428,10 +14350,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="F379" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14457,13 +14379,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="F380" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14486,10 +14408,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F381" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14515,10 +14437,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F382" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G382" t="n">
         <v>7</v>
@@ -14544,10 +14466,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F383" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14573,10 +14495,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F384" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G384" t="n">
         <v>3</v>
@@ -14602,10 +14524,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F385" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -14631,10 +14553,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="F386" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14660,10 +14582,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F387" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14689,10 +14611,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F388" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -14718,10 +14640,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F389" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="G389" t="n">
         <v>3</v>
@@ -14747,10 +14669,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="F390" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14776,10 +14698,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="F391" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14805,10 +14727,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="F392" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14834,10 +14756,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F393" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14863,10 +14785,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F394" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14892,10 +14814,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="F395" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14921,10 +14843,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F396" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14950,10 +14872,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="F397" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14979,10 +14901,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="F398" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="G398" t="n">
         <v>3</v>
@@ -15008,10 +14930,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="F399" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15037,10 +14959,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="F400" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15066,10 +14988,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="F401" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -15095,10 +15017,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="F402" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15124,10 +15046,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="F403" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="G403" t="n">
         <v>3</v>
@@ -15153,10 +15075,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="F404" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="G404" t="n">
         <v>3</v>
@@ -15182,10 +15104,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F405" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -15211,10 +15133,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F406" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15240,13 +15162,13 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="F407" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="G407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -15269,10 +15191,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F408" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15298,10 +15220,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F409" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G409" t="n">
         <v>12</v>
@@ -15327,10 +15249,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F410" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15356,10 +15278,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F411" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -15385,10 +15307,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F412" t="s">
-        <v>782</v>
+        <v>395</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15414,10 +15336,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F413" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15443,10 +15365,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F414" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15472,10 +15394,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F415" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15501,10 +15423,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="F416" t="s">
-        <v>788</v>
+        <v>397</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15530,10 +15452,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F417" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15559,10 +15481,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F418" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15588,10 +15510,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="F419" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15617,10 +15539,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="F420" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15646,10 +15568,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F421" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15675,10 +15597,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="F422" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -15704,10 +15626,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="F423" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15733,10 +15655,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="F424" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15762,10 +15684,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F425" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15791,10 +15713,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="F426" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15820,10 +15742,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F427" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15849,10 +15771,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F428" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15878,10 +15800,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F429" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15907,10 +15829,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="F430" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15936,10 +15858,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="F431" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15965,10 +15887,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F432" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15994,10 +15916,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="F433" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16023,10 +15945,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F434" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16052,10 +15974,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="F435" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16081,10 +16003,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="F436" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16110,10 +16032,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F437" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16139,10 +16061,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F438" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16168,10 +16090,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F439" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16197,10 +16119,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F440" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="G440" t="n">
         <v>3</v>
@@ -16226,10 +16148,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="F441" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16255,10 +16177,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F442" t="s">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -16284,10 +16206,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="F443" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16313,10 +16235,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="F444" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16342,10 +16264,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="F445" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16371,10 +16293,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="F446" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16400,10 +16322,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="F447" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16429,10 +16351,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="F448" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16458,10 +16380,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="F449" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16487,10 +16409,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="F450" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16516,10 +16438,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="F451" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16545,10 +16467,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="F452" t="s">
-        <v>858</v>
+        <v>682</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16574,10 +16496,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F453" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16603,10 +16525,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F454" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16632,10 +16554,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F455" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16661,10 +16583,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F456" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16690,10 +16612,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F457" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16719,10 +16641,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F458" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16748,10 +16670,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F459" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G459" t="n">
         <v>6</v>
@@ -16777,10 +16699,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F460" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -16806,10 +16728,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F461" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16835,10 +16757,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F462" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16864,10 +16786,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F463" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16893,10 +16815,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="F464" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16922,10 +16844,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="F465" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16951,10 +16873,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="F466" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -16980,10 +16902,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="F467" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17009,10 +16931,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="F468" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17038,10 +16960,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="F469" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17067,10 +16989,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F470" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17096,10 +17018,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F471" t="s">
-        <v>892</v>
+        <v>295</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -17125,10 +17047,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="F472" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -17154,10 +17076,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="F473" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17183,10 +17105,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="F474" t="s">
-        <v>898</v>
+        <v>750</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17212,10 +17134,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="F475" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17241,10 +17163,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="F476" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17270,10 +17192,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="F477" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17299,10 +17221,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="F478" t="s">
-        <v>906</v>
+        <v>730</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17328,10 +17250,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="F479" t="s">
-        <v>908</v>
+        <v>732</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17357,10 +17279,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="F480" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17386,10 +17308,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="F481" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17415,10 +17337,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="F482" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17444,10 +17366,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="F483" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17473,10 +17395,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="F484" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17502,10 +17424,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="F485" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -17531,10 +17453,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F486" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17560,10 +17482,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="F487" t="s">
-        <v>922</v>
+        <v>734</v>
       </c>
       <c r="G487" t="n">
         <v>3</v>
@@ -17589,10 +17511,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="F488" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17618,10 +17540,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="F489" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -17647,10 +17569,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="F490" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -17676,10 +17598,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="F491" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="G491" t="n">
         <v>2</v>
@@ -17705,10 +17627,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="F492" t="s">
-        <v>932</v>
+        <v>778</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17734,10 +17656,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="F493" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17763,10 +17685,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="F494" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -17792,10 +17714,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F495" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -17821,10 +17743,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F496" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G496" t="n">
         <v>16</v>
@@ -17850,10 +17772,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="F497" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -17879,10 +17801,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="F498" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17908,10 +17830,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="F499" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -17937,10 +17859,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="F500" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17966,10 +17888,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="F501" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17995,10 +17917,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="F502" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18024,10 +17946,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="F503" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18053,10 +17975,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="F504" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18082,10 +18004,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="F505" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -18111,10 +18033,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="F506" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="G506" t="n">
         <v>2</v>
@@ -18140,10 +18062,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="F507" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="G507" t="n">
         <v>2</v>
@@ -18169,10 +18091,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="F508" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18198,10 +18120,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="F509" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -18227,10 +18149,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="F510" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18256,10 +18178,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="F511" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18285,10 +18207,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="F512" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -18314,10 +18236,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F513" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -18343,10 +18265,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="F514" t="s">
-        <v>968</v>
+        <v>680</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -18372,10 +18294,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="F515" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18401,10 +18323,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="F516" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18430,10 +18352,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="F517" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18459,10 +18381,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="F518" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18488,10 +18410,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="F519" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="G519" t="n">
         <v>3</v>
@@ -18517,10 +18439,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="F520" t="s">
-        <v>980</v>
+        <v>606</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -18546,10 +18468,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="F521" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18575,10 +18497,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F522" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18604,10 +18526,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F523" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18633,10 +18555,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
       <c r="F524" t="s">
-        <v>984</v>
+        <v>626</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18662,10 +18584,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="F525" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18691,10 +18613,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="F526" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18720,10 +18642,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
       <c r="F527" t="s">
-        <v>990</v>
+        <v>616</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18749,10 +18671,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="F528" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18778,10 +18700,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="F529" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18807,10 +18729,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="F530" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18836,10 +18758,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="F531" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18865,10 +18787,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="F532" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18894,10 +18816,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
       <c r="F533" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18923,10 +18845,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F534" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18952,10 +18874,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F535" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18981,10 +18903,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
       <c r="F536" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19010,10 +18932,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
       <c r="F537" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19039,10 +18961,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1005</v>
+        <v>979</v>
       </c>
       <c r="F538" t="s">
-        <v>1006</v>
+        <v>980</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19068,10 +18990,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="F539" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19097,10 +19019,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="F540" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19126,10 +19048,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
       <c r="F541" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19155,10 +19077,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="F542" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19184,10 +19106,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="F543" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19213,10 +19135,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
       <c r="F544" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19242,10 +19164,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
       <c r="F545" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19271,10 +19193,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1019</v>
+        <v>993</v>
       </c>
       <c r="F546" t="s">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19300,10 +19222,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1021</v>
+        <v>995</v>
       </c>
       <c r="F547" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19329,10 +19251,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1023</v>
+        <v>997</v>
       </c>
       <c r="F548" t="s">
-        <v>1024</v>
+        <v>998</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19358,10 +19280,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="F549" t="s">
-        <v>1026</v>
+        <v>1000</v>
       </c>
       <c r="G549" t="n">
         <v>21</v>
@@ -19387,10 +19309,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="F550" t="s">
-        <v>1027</v>
+        <v>1001</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>

--- a/xlsx/吉布地_intext.xlsx
+++ b/xlsx/吉布地_intext.xlsx
@@ -29,7 +29,7 @@
     <t>吉布提国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_吉布地</t>
+    <t>体育运动_体育运动_南非_吉布地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90%E5%9B%BD%E5%BE%BD</t>
